--- a/Расчет частоты для МК .xlsx
+++ b/Расчет частоты для МК .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80190242-F2D8-4063-BFBC-609945F7F2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9021C40C-761C-46DA-BC52-09A2AD6E17E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2955" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Тактовая частота МК</t>
   </si>
@@ -43,9 +43,6 @@
     <t>мкс</t>
   </si>
   <si>
-    <t>Расчет частоты для ШИМ</t>
-  </si>
-  <si>
     <t>ШИМ</t>
   </si>
   <si>
@@ -58,7 +55,13 @@
     <t>Время</t>
   </si>
   <si>
-    <t>Расчет частоты для Задержки</t>
+    <t>Расчет частоты для ШИМ, TIM1</t>
+  </si>
+  <si>
+    <t>Частота</t>
+  </si>
+  <si>
+    <t>Опрос портов ввода, TIM2, TIM3</t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q22"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,8 +629,8 @@
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -640,14 +643,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -656,21 +659,14 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
-      <c r="M5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -681,13 +677,8 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="12"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
@@ -703,20 +694,11 @@
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3">
-        <v>23999</v>
+        <v>23</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="M7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="3">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -732,20 +714,11 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
       <c r="J8" s="2">
-        <v>39999</v>
+        <v>49</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="M8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="2">
-        <v>499</v>
-      </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -759,60 +732,49 @@
         <v>6</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="6">
         <f>D3*1000000/(J7+1)/(J8+1)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>20000</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="6">
+        <f>1/J9*10^6</f>
+        <v>50</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="6">
-        <f>D3*1000000/(P7+1)/(P8+1)</f>
-        <v>1000</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -822,17 +784,8 @@
         <v>47</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="G13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="3">
-        <v>23</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>4</v>
       </c>
@@ -842,19 +795,10 @@
         <v>10000</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="G14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="2">
-        <v>39</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -863,24 +807,12 @@
         <v>49.995000499950002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="6">
-        <f>D3*1000000/(J13+1)/(J14+1)</f>
-        <v>25000</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -896,17 +828,13 @@
       <c r="A22" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
+  <mergeCells count="19">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A16:C16"/>
@@ -915,16 +843,11 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Расчет частоты для МК .xlsx
+++ b/Расчет частоты для МК .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9021C40C-761C-46DA-BC52-09A2AD6E17E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,6 +290,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,15 +315,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,8 +628,8 @@
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -643,14 +642,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -666,59 +665,65 @@
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="24"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3">
         <v>23</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="3">
         <v>23</v>
       </c>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="M7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="2">
         <v>49</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="2">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="M8">
         <v>49</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -738,13 +743,13 @@
       <c r="I9" s="9"/>
       <c r="J9" s="6">
         <f>D3*1000000/(J7+1)/(J8+1)</f>
-        <v>20000</v>
+        <v>33333.333333333336</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
@@ -752,13 +757,13 @@
       <c r="I10" s="9"/>
       <c r="J10" s="6">
         <f>1/J9*10^6</f>
-        <v>50</v>
+        <v>29.999999999999996</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -767,36 +772,36 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="12" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="3">
         <v>47</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="2">
         <v>10000</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -810,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -829,12 +834,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A16:C16"/>
@@ -843,11 +847,12 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
